--- a/media/generated/consolidated-plan-output.xlsx
+++ b/media/generated/consolidated-plan-output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>S/No</t>
   </si>
@@ -56,6 +56,42 @@
   </si>
   <si>
     <t>Contract completion date</t>
+  </si>
+  <si>
+    <t>General Staff Salaries</t>
+  </si>
+  <si>
+    <t>UGX</t>
+  </si>
+  <si>
+    <t>GOU</t>
+  </si>
+  <si>
+    <t>Opening Domestic Bidding</t>
+  </si>
+  <si>
+    <t>Admeasurement</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-10-18</t>
+  </si>
+  <si>
+    <t>2020-10-23</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
   </si>
 </sst>
 </file>
@@ -387,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -437,6 +473,50 @@
         <v>13</v>
       </c>
     </row>
+    <row r="2" spans="1:14">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>10000000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/media/generated/consolidated-plan-output.xlsx
+++ b/media/generated/consolidated-plan-output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>S/No</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Subject of procurement</t>
   </si>
   <si>
+    <t>Procurement type</t>
+  </si>
+  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -49,7 +52,7 @@
     <t>Approval of evaluation date</t>
   </si>
   <si>
-    <t>Award notication date</t>
+    <t>Award notification date</t>
   </si>
   <si>
     <t>Contract signing date</t>
@@ -58,7 +61,10 @@
     <t>Contract completion date</t>
   </si>
   <si>
-    <t>General Staff Salaries</t>
+    <t>Computer supplies and IT Services</t>
+  </si>
+  <si>
+    <t>SUPPLIES</t>
   </si>
   <si>
     <t>UGX</t>
@@ -67,28 +73,28 @@
     <t>GOU</t>
   </si>
   <si>
-    <t>Opening Domestic Bidding</t>
-  </si>
-  <si>
-    <t>Admeasurement</t>
+    <t>Micro Procurement</t>
+  </si>
+  <si>
+    <t>Framework</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>2020-09-01</t>
-  </si>
-  <si>
-    <t>2020-09-21</t>
-  </si>
-  <si>
-    <t>2020-09-28</t>
-  </si>
-  <si>
-    <t>2020-10-18</t>
-  </si>
-  <si>
-    <t>2020-10-23</t>
+    <t>2020-10-20</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-12-06</t>
+  </si>
+  <si>
+    <t>2020-12-11</t>
   </si>
   <si>
     <t>2021-06-30</t>
@@ -423,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,49 +478,55 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>10000000</v>
-      </c>
-      <c r="E2" t="s">
         <v>16</v>
       </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>1000000</v>
+      </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/media/generated/consolidated-plan-output.xlsx
+++ b/media/generated/consolidated-plan-output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>S/No</t>
   </si>
@@ -76,28 +76,76 @@
     <t>Micro Procurement</t>
   </si>
   <si>
+    <t>Lumpsum</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>2020-11-18</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-12-15</t>
+  </si>
+  <si>
+    <t>2020-12-20</t>
+  </si>
+  <si>
+    <t>2021-06-29</t>
+  </si>
+  <si>
+    <t>Staff Training</t>
+  </si>
+  <si>
+    <t>NON-CONSULTANCY SERVICES</t>
+  </si>
+  <si>
     <t>Framework</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>2020-10-20</t>
-  </si>
-  <si>
-    <t>2020-11-09</t>
+    <t>2020-10-27</t>
   </si>
   <si>
     <t>2020-11-16</t>
   </si>
   <si>
-    <t>2020-12-06</t>
-  </si>
-  <si>
-    <t>2020-12-11</t>
-  </si>
-  <si>
-    <t>2021-06-30</t>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-12-13</t>
+  </si>
+  <si>
+    <t>2020-12-18</t>
+  </si>
+  <si>
+    <t>Maintenance - Vehicles</t>
+  </si>
+  <si>
+    <t>WORKS</t>
+  </si>
+  <si>
+    <t>Admeasurement</t>
+  </si>
+  <si>
+    <t>2020-10-30</t>
+  </si>
+  <si>
+    <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-26</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
   </si>
 </sst>
 </file>
@@ -429,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +544,7 @@
         <v>17</v>
       </c>
       <c r="E2">
-        <v>1000000</v>
+        <v>3095000</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -526,6 +574,100 @@
         <v>26</v>
       </c>
       <c r="O2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>2000000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>2001000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
         <v>27</v>
       </c>
     </row>
